--- a/data/aggregated_single/config.xlsx
+++ b/data/aggregated_single/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcardon\repos\winter_school\winter_school\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcardon\repos\winter_school\winter_school\data\aggregated_single\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EECE4ED-D94A-40F2-99BF-66D124CD7B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0F603D6-1484-47AA-A369-62D1A2AC7128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20880" yWindow="1236" windowWidth="17280" windowHeight="9852" xr2:uid="{17C18EF7-737C-479D-968B-4FA9C9FA45BE}"/>
+    <workbookView xWindow="-25116" yWindow="1020" windowWidth="17280" windowHeight="9852" xr2:uid="{17C18EF7-737C-479D-968B-4FA9C9FA45BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>basis</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>bs2</t>
+  </si>
+  <si>
+    <t>bs3</t>
   </si>
 </sst>
 </file>
@@ -415,7 +418,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,13 +448,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>200</v>
+        <v>246.57255000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>0.3</v>
+        <v>0.16050700000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>5560</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -459,20 +462,28 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>500</v>
+        <v>477.22721200000001</v>
       </c>
       <c r="C3" s="1">
-        <v>0.7</v>
+        <v>0.68484199999999995</v>
       </c>
       <c r="D3" s="1">
-        <v>3000</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>579.68972900000006</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.16483600000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3101</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
